--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>490200.0677657998</v>
+        <v>581683.2470024652</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12496676.879328</v>
+        <v>12535336.02914634</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7127088.055546217</v>
+        <v>7622616.185043056</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9236977.777003661</v>
+        <v>8997248.300753195</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>6.396723986041489</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="Y2" t="n">
-        <v>153.807238032413</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -750,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>179.9896253540986</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>23.08992550962936</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="4">
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>67.91719953966599</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="T4" t="n">
-        <v>161.8294550022487</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U4" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H5" t="n">
-        <v>187.5255871663199</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>153.8072380324131</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.1725371760946</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>112.3394215371052</v>
       </c>
       <c r="T6" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>29.00708539155837</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="T7" t="n">
         <v>187.5255871663199</v>
@@ -1111,7 +1113,7 @@
         <v>187.5255871663199</v>
       </c>
       <c r="V7" t="n">
-        <v>187.5255871663199</v>
+        <v>29.00708539155832</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="U8" t="n">
-        <v>32.12329511324702</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>141.4261508958553</v>
       </c>
       <c r="D9" t="n">
-        <v>56.3062164220982</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.17372043046393</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1294,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>64.90443199499799</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>216.8615574464599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>2.834206670628964</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>186.8250998946389</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,13 +1429,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1469,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471489</v>
+        <v>114.2656173771016</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>197.2040098788567</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>168.1158122680963</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1706,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247631</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>106.5867442799583</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471489</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,16 +1852,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>124.609683116095</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>229.7965692041367</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>12.51806891903073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>96.58341357321376</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2059,7 +2061,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2087,13 +2089,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>126.7498226612772</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>370.0212081709818</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2141,10 +2143,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2180,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>80.50796942908565</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471489</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2333,7 +2335,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>232.6455623928329</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>243.239148559244</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2412,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2479,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>136.9968647819695</v>
       </c>
       <c r="U25" t="n">
-        <v>217.0914199928484</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>186.8250998946389</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>230.6968828249247</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2649,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>47.62401295341039</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>171.1096626559147</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>33.87982246814969</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2807,10 +2809,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2855,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>247.0916244150702</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>94.31414135199438</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>146.6131164576012</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>147.4560401914883</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
@@ -3077,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>244.2492367528326</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>114.2656173771019</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>150.2062474346973</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3272,16 +3274,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>85.17289288835127</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3323,16 +3325,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>23.79925355567458</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>74.7576914549238</v>
+        <v>74.75769145492396</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3518,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>243.5875274224977</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>202.6460827821287</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3664,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>77.31354443380542</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>205.526188887224</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3740,25 +3742,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>390.7430700342589</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T41" t="n">
-        <v>131.6288405191013</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3834,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>74.75769145492293</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>114.2656173771021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>315.9126292240485</v>
+        <v>79.79054502264397</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3992,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,7 +4036,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>74.75764049751746</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>116.1752591856732</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.00204697330559</v>
+        <v>21.46338433294346</v>
       </c>
       <c r="C2" t="n">
         <v>15.00204697330559</v>
@@ -4334,46 +4336,46 @@
         <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079183</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
         <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201467</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201467</v>
+        <v>589.7227393823978</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201467</v>
+        <v>589.7227393823978</v>
       </c>
       <c r="U2" t="n">
-        <v>738.6222485201467</v>
+        <v>589.7227393823978</v>
       </c>
       <c r="V2" t="n">
-        <v>738.6222485201467</v>
+        <v>589.7227393823978</v>
       </c>
       <c r="W2" t="n">
-        <v>549.202463503662</v>
+        <v>589.7227393823978</v>
       </c>
       <c r="X2" t="n">
-        <v>359.7826784871772</v>
+        <v>400.302954365913</v>
       </c>
       <c r="Y2" t="n">
-        <v>204.4218319897903</v>
+        <v>210.8831693494282</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>189.4550762544326</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330559</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330559</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330559</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G3" t="n">
         <v>15.00204697330559</v>
@@ -4410,49 +4412,49 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024216</v>
       </c>
       <c r="L3" t="n">
         <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843278</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843278</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843278</v>
       </c>
       <c r="U3" t="n">
-        <v>568.2946462874021</v>
+        <v>722.9192922843278</v>
       </c>
       <c r="V3" t="n">
-        <v>378.8748612709173</v>
+        <v>722.9192922843278</v>
       </c>
       <c r="W3" t="n">
-        <v>189.4550762544326</v>
+        <v>533.499507267843</v>
       </c>
       <c r="X3" t="n">
-        <v>189.4550762544326</v>
+        <v>510.1763501874093</v>
       </c>
       <c r="Y3" t="n">
-        <v>189.4550762544326</v>
+        <v>320.7565651709245</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>233.7219182438898</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>233.7219182438898</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>83.60527883155407</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>83.60527883155407</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>83.60527883155407</v>
       </c>
       <c r="G4" t="n">
         <v>15.00204697330559</v>
@@ -4489,49 +4491,49 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>279.6026869745584</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830973</v>
+        <v>401.7138139340728</v>
       </c>
       <c r="N4" t="n">
-        <v>559.190287677754</v>
+        <v>587.3641452287295</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143042</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846272</v>
+        <v>746.7254979846274</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846272</v>
+        <v>612.5614882768593</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846272</v>
+        <v>423.1417032603746</v>
       </c>
       <c r="T4" t="n">
-        <v>583.2614020227597</v>
+        <v>233.7219182438898</v>
       </c>
       <c r="U4" t="n">
-        <v>393.841617006275</v>
+        <v>233.7219182438898</v>
       </c>
       <c r="V4" t="n">
-        <v>204.4218319897903</v>
+        <v>233.7219182438898</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>233.7219182438898</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>233.7219182438898</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>233.7219182438898</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>204.4218319897904</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="C5" t="n">
-        <v>204.4218319897904</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="D5" t="n">
-        <v>204.4218319897904</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="E5" t="n">
-        <v>204.4218319897904</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="F5" t="n">
-        <v>204.4218319897904</v>
+        <v>371.26277863231</v>
       </c>
       <c r="G5" t="n">
-        <v>204.4218319897904</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="H5" t="n">
         <v>15.00204697330559</v>
@@ -4565,52 +4567,52 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678498</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058947</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L5" t="n">
         <v>191.8743094079184</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985581</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020265</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R5" t="n">
-        <v>738.622248520147</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S5" t="n">
-        <v>738.622248520147</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T5" t="n">
-        <v>738.622248520147</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U5" t="n">
-        <v>583.26140202276</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V5" t="n">
-        <v>583.26140202276</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W5" t="n">
-        <v>583.26140202276</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="X5" t="n">
-        <v>393.8416170062752</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Y5" t="n">
-        <v>393.8416170062752</v>
+        <v>750.1023486652795</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.00204697330559</v>
+        <v>609.4451291155344</v>
       </c>
       <c r="C6" t="n">
-        <v>15.00204697330559</v>
+        <v>609.4451291155344</v>
       </c>
       <c r="D6" t="n">
-        <v>15.00204697330559</v>
+        <v>609.4451291155344</v>
       </c>
       <c r="E6" t="n">
-        <v>15.00204697330559</v>
+        <v>450.2076741100789</v>
       </c>
       <c r="F6" t="n">
-        <v>15.00204697330559</v>
+        <v>303.6731161369638</v>
       </c>
       <c r="G6" t="n">
-        <v>15.00204697330559</v>
+        <v>166.133934959413</v>
       </c>
       <c r="H6" t="n">
-        <v>15.00204697330559</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I6" t="n">
         <v>15.00204697330559</v>
@@ -4647,49 +4649,49 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024213</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L6" t="n">
         <v>183.5548280772649</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N6" t="n">
         <v>512.5000587546601</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017063</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652797</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652797</v>
+        <v>609.4451291155344</v>
       </c>
       <c r="T6" t="n">
-        <v>560.6825636487949</v>
+        <v>609.4451291155344</v>
       </c>
       <c r="U6" t="n">
-        <v>371.2627786323102</v>
+        <v>609.4451291155344</v>
       </c>
       <c r="V6" t="n">
-        <v>181.8429936158254</v>
+        <v>609.4451291155344</v>
       </c>
       <c r="W6" t="n">
-        <v>181.8429936158254</v>
+        <v>609.4451291155344</v>
       </c>
       <c r="X6" t="n">
-        <v>181.8429936158254</v>
+        <v>609.4451291155344</v>
       </c>
       <c r="Y6" t="n">
-        <v>181.8429936158254</v>
+        <v>609.4451291155344</v>
       </c>
     </row>
     <row r="7">
@@ -4732,31 +4734,31 @@
         <v>187.8896250884407</v>
       </c>
       <c r="M7" t="n">
-        <v>373.5399563830974</v>
+        <v>285.9838492295949</v>
       </c>
       <c r="N7" t="n">
-        <v>471.6341805242517</v>
+        <v>471.6341805242515</v>
       </c>
       <c r="O7" t="n">
-        <v>634.3723839608019</v>
+        <v>634.3723839608017</v>
       </c>
       <c r="P7" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q7" t="n">
-        <v>746.7254979846274</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="R7" t="n">
-        <v>612.5614882768593</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="S7" t="n">
-        <v>583.26140202276</v>
+        <v>423.1417032603744</v>
       </c>
       <c r="T7" t="n">
-        <v>393.8416170062752</v>
+        <v>233.7219182438896</v>
       </c>
       <c r="U7" t="n">
-        <v>204.4218319897904</v>
+        <v>44.30213322740491</v>
       </c>
       <c r="V7" t="n">
         <v>15.00204697330559</v>
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>719.7325263635382</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="C8" t="n">
-        <v>350.7700094231265</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="D8" t="n">
-        <v>350.7700094231265</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="E8" t="n">
-        <v>350.7700094231265</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="F8" t="n">
-        <v>350.7700094231265</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="G8" t="n">
-        <v>350.7700094231265</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809305</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809305</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172446</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904652</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904652</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642783</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T8" t="n">
-        <v>1826.151173794698</v>
+        <v>583.26140202276</v>
       </c>
       <c r="U8" t="n">
-        <v>1793.703400953035</v>
+        <v>583.26140202276</v>
       </c>
       <c r="V8" t="n">
-        <v>1462.640513609464</v>
+        <v>583.26140202276</v>
       </c>
       <c r="W8" t="n">
-        <v>1109.87185833935</v>
+        <v>583.26140202276</v>
       </c>
       <c r="X8" t="n">
-        <v>1109.87185833935</v>
+        <v>583.26140202276</v>
       </c>
       <c r="Y8" t="n">
-        <v>719.7325263635382</v>
+        <v>393.8416170062752</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>533.4666540631115</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="C9" t="n">
-        <v>359.0136247819845</v>
+        <v>607.2476507906783</v>
       </c>
       <c r="D9" t="n">
-        <v>302.138658699057</v>
+        <v>458.313241129427</v>
       </c>
       <c r="E9" t="n">
-        <v>302.138658699057</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="F9" t="n">
-        <v>302.138658699057</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G9" t="n">
-        <v>165.2626649141729</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H9" t="n">
-        <v>69.80729798300611</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809305</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J9" t="n">
-        <v>214.3836900926279</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>427.1868157183615</v>
+        <v>67.13418877024216</v>
       </c>
       <c r="L9" t="n">
-        <v>684.7379512783491</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>1004.644846746858</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>1347.42737074149</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O9" t="n">
-        <v>1638.786616996056</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.295032556956</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q9" t="n">
-        <v>2154.745546059887</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R9" t="n">
-        <v>2168.459826904652</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S9" t="n">
-        <v>2029.49516640637</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T9" t="n">
-        <v>1834.784844880346</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U9" t="n">
-        <v>1606.683255013611</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="V9" t="n">
-        <v>1371.531146781868</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="W9" t="n">
-        <v>1117.293790053666</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="X9" t="n">
-        <v>909.4422898481334</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="Y9" t="n">
-        <v>701.6819910831796</v>
+        <v>750.1023486652797</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1085.65483563466</v>
+        <v>565.0770331543877</v>
       </c>
       <c r="C10" t="n">
-        <v>916.7186527067531</v>
+        <v>396.1408502264808</v>
       </c>
       <c r="D10" t="n">
-        <v>766.6020132944174</v>
+        <v>396.1408502264808</v>
       </c>
       <c r="E10" t="n">
-        <v>618.6889197120242</v>
+        <v>396.1408502264808</v>
       </c>
       <c r="F10" t="n">
-        <v>471.7989722141139</v>
+        <v>249.2509027285704</v>
       </c>
       <c r="G10" t="n">
-        <v>303.6661428091322</v>
+        <v>80.56207929148539</v>
       </c>
       <c r="H10" t="n">
-        <v>153.6259293129249</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809305</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
-        <v>58.6963092017423</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
-        <v>213.7203003246705</v>
+        <v>43.17590452428101</v>
       </c>
       <c r="L10" t="n">
-        <v>467.6240706728883</v>
+        <v>216.0634826394161</v>
       </c>
       <c r="M10" t="n">
-        <v>745.7191196640786</v>
+        <v>401.7138139340728</v>
       </c>
       <c r="N10" t="n">
-        <v>1022.636306385109</v>
+        <v>587.3641452287295</v>
       </c>
       <c r="O10" t="n">
-        <v>1262.397853152952</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="P10" t="n">
-        <v>1444.034594271086</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="Q10" t="n">
-        <v>1486.355378693647</v>
+        <v>746.7254979846274</v>
       </c>
       <c r="R10" t="n">
-        <v>1486.355378693647</v>
+        <v>746.7254979846274</v>
       </c>
       <c r="S10" t="n">
-        <v>1486.355378693647</v>
+        <v>746.7254979846274</v>
       </c>
       <c r="T10" t="n">
-        <v>1486.355378693647</v>
+        <v>746.7254979846274</v>
       </c>
       <c r="U10" t="n">
-        <v>1486.355378693647</v>
+        <v>746.7254979846274</v>
       </c>
       <c r="V10" t="n">
-        <v>1486.355378693647</v>
+        <v>746.7254979846274</v>
       </c>
       <c r="W10" t="n">
-        <v>1486.355378693647</v>
+        <v>746.7254979846274</v>
       </c>
       <c r="X10" t="n">
-        <v>1486.355378693647</v>
+        <v>746.7254979846274</v>
       </c>
       <c r="Y10" t="n">
-        <v>1267.3033004649</v>
+        <v>746.7254979846274</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1979.067756754391</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>552.807938939213</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V11" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W11" t="n">
-        <v>2755.806928794324</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X11" t="n">
-        <v>2755.806928794324</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y11" t="n">
-        <v>2365.667596818512</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,31 +5138,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
         <v>1109.759191501176</v>
@@ -5194,7 +5196,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
         <v>111.6347488791189</v>
@@ -5221,19 +5223,19 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="W13" t="n">
         <v>1722.044275313594</v>
@@ -5252,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2005.586939522201</v>
+        <v>2175.400891308156</v>
       </c>
       <c r="C14" t="n">
-        <v>1636.624422581789</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D14" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G14" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H14" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
         <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
         <v>3325.60582160917</v>
@@ -5315,13 +5317,13 @@
         <v>3325.60582160917</v>
       </c>
       <c r="W14" t="n">
-        <v>3155.791869823214</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X14" t="n">
-        <v>2782.326111562134</v>
+        <v>2952.14006334809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2392.186779586323</v>
+        <v>2562.000731372278</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811075</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999805</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5370,7 +5372,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P15" t="n">
         <v>2407.41198488674</v>
@@ -5385,13 +5387,13 @@
         <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U15" t="n">
         <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W15" t="n">
         <v>1525.370990471662</v>
@@ -5400,7 +5402,7 @@
         <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="16">
@@ -5410,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="D16" t="n">
         <v>772.5608581015648</v>
@@ -5431,7 +5433,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
         <v>111.6347488791189</v>
@@ -5440,46 +5442,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q16" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088492</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088492</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>880.2242361621287</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1822.632236038042</v>
+        <v>1628.17820394412</v>
       </c>
       <c r="C17" t="n">
-        <v>1453.669719097631</v>
+        <v>1259.215687003709</v>
       </c>
       <c r="D17" t="n">
-        <v>1095.40402049088</v>
+        <v>900.9499883969581</v>
       </c>
       <c r="E17" t="n">
-        <v>709.6157678926361</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F17" t="n">
-        <v>298.6298631030285</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G17" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5525,40 +5527,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.60582160917</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W17" t="n">
-        <v>2972.837166339056</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X17" t="n">
-        <v>2599.371408077976</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y17" t="n">
-        <v>2209.232076102164</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>936.5735814686076</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>935.3220115735276</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="C19" t="n">
-        <v>922.6774975139006</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="D19" t="n">
-        <v>772.5608581015648</v>
+        <v>722.2067681284785</v>
       </c>
       <c r="E19" t="n">
         <v>624.6477645191717</v>
@@ -5668,7 +5670,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.6347488791189</v>
@@ -5698,25 +5700,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U19" t="n">
-        <v>1224.739181610488</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V19" t="n">
-        <v>1224.739181610488</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W19" t="n">
-        <v>935.3220115735276</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X19" t="n">
-        <v>935.3220115735276</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="Y19" t="n">
-        <v>935.3220115735276</v>
+        <v>872.3234075408143</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1964.273285499502</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C20" t="n">
-        <v>1595.310768559091</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D20" t="n">
-        <v>1237.04506995234</v>
+        <v>194.5422403324635</v>
       </c>
       <c r="E20" t="n">
-        <v>851.2568173540958</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F20" t="n">
-        <v>440.2709125644882</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5762,40 +5764,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W20" t="n">
-        <v>2741.012457539436</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X20" t="n">
-        <v>2741.012457539436</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y20" t="n">
-        <v>2350.873125563624</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I21" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228021</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031491</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158142</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
         <v>2407.411984886741</v>
@@ -5862,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1861.970701620179</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C22" t="n">
-        <v>1693.034518692272</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D22" t="n">
-        <v>1611.713337450771</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E22" t="n">
-        <v>1611.713337450771</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.823389952861</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.823389952861</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.823389952861</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T22" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U22" t="n">
-        <v>3036.502954734814</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V22" t="n">
-        <v>2781.818466528927</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W22" t="n">
-        <v>2492.401296491966</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X22" t="n">
-        <v>2264.411745593949</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y22" t="n">
-        <v>2043.619166450419</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2005.586939522201</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C23" t="n">
-        <v>1636.624422581789</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D23" t="n">
-        <v>1278.358723975039</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G23" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6002,37 +6004,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R23" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U23" t="n">
-        <v>2961.784676410101</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V23" t="n">
-        <v>2630.721789066531</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W23" t="n">
-        <v>2395.726271498012</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X23" t="n">
-        <v>2395.726271498012</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="Y23" t="n">
-        <v>2005.586939522201</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="24">
@@ -6057,28 +6059,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
         <v>2096.912393410638</v>
@@ -6121,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>533.4780323548191</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C25" t="n">
-        <v>364.5418494269122</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D25" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J25" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L25" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N25" t="n">
         <v>1317.747152581905</v>
@@ -6166,31 +6168,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T25" t="n">
-        <v>1927.294548088493</v>
+        <v>1699.083419349081</v>
       </c>
       <c r="U25" t="n">
-        <v>1708.010285469454</v>
+        <v>1409.980552474725</v>
       </c>
       <c r="V25" t="n">
-        <v>1453.325797263567</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W25" t="n">
-        <v>1163.908627226606</v>
+        <v>865.8788942318774</v>
       </c>
       <c r="X25" t="n">
-        <v>935.919076328589</v>
+        <v>637.8893433338601</v>
       </c>
       <c r="Y25" t="n">
-        <v>715.1264971850588</v>
+        <v>417.09676419033</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1976.204921733553</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C26" t="n">
-        <v>1976.204921733553</v>
+        <v>552.807938939213</v>
       </c>
       <c r="D26" t="n">
-        <v>1617.939223126803</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6239,37 +6241,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R26" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V26" t="n">
-        <v>3092.578667240559</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W26" t="n">
-        <v>2739.810011970445</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X26" t="n">
-        <v>2366.344253709365</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y26" t="n">
-        <v>1976.204921733553</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="27">
@@ -6294,22 +6296,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6358,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>530.9956795433841</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C28" t="n">
-        <v>362.0594966154772</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D28" t="n">
-        <v>211.9428572031415</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E28" t="n">
-        <v>163.837793613838</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F28" t="n">
-        <v>163.837793613838</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G28" t="n">
-        <v>163.837793613838</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H28" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K28" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L28" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N28" t="n">
         <v>1317.747152581905</v>
@@ -6403,31 +6405,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T28" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U28" t="n">
-        <v>1705.527932658019</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V28" t="n">
-        <v>1450.843444452132</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W28" t="n">
-        <v>1161.426274415171</v>
+        <v>1348.774511177175</v>
       </c>
       <c r="X28" t="n">
-        <v>933.436723517154</v>
+        <v>1348.774511177175</v>
       </c>
       <c r="Y28" t="n">
-        <v>712.6441443736238</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1624.63871203243</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C29" t="n">
-        <v>1624.63871203243</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D29" t="n">
-        <v>1266.373013425679</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6473,16 +6475,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R29" t="n">
         <v>3325.60582160917</v>
@@ -6494,19 +6496,19 @@
         <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>3072.075344883006</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V29" t="n">
-        <v>2741.012457539436</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W29" t="n">
-        <v>2388.243802269321</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X29" t="n">
-        <v>2014.778044008242</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="Y29" t="n">
-        <v>1624.63871203243</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="30">
@@ -6531,28 +6533,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
         <v>2096.912393410638</v>
@@ -6595,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>311.7508871962311</v>
+        <v>645.3078929297407</v>
       </c>
       <c r="C31" t="n">
-        <v>311.7508871962311</v>
+        <v>476.3717100018338</v>
       </c>
       <c r="D31" t="n">
-        <v>311.7508871962311</v>
+        <v>476.3717100018338</v>
       </c>
       <c r="E31" t="n">
-        <v>163.837793613838</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>163.837793613838</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G31" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H31" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J31" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K31" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L31" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N31" t="n">
         <v>1317.747152581905</v>
@@ -6640,31 +6642,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S31" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T31" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U31" t="n">
-        <v>1224.739181610489</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V31" t="n">
-        <v>970.0546934046018</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W31" t="n">
-        <v>680.6375233676413</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X31" t="n">
-        <v>532.5434663397613</v>
+        <v>866.1004720732708</v>
       </c>
       <c r="Y31" t="n">
-        <v>311.7508871962311</v>
+        <v>645.3078929297407</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1575.915835277607</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C32" t="n">
-        <v>1206.953318337195</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D32" t="n">
-        <v>1206.953318337195</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E32" t="n">
-        <v>821.1650657389509</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F32" t="n">
         <v>821.1650657389509</v>
@@ -6695,13 +6697,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329465</v>
@@ -6710,40 +6712,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>3078.889420848735</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V32" t="n">
-        <v>3078.889420848735</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W32" t="n">
-        <v>2726.12076557862</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="X32" t="n">
-        <v>2352.65500731754</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="Y32" t="n">
-        <v>1962.515675341729</v>
+        <v>2494.112933816883</v>
       </c>
     </row>
     <row r="33">
@@ -6753,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D33" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
         <v>2407.411984886741</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2489.924953962486</v>
+        <v>2489.924953962484</v>
       </c>
       <c r="C34" t="n">
-        <v>2320.988771034579</v>
+        <v>2320.988771034577</v>
       </c>
       <c r="D34" t="n">
-        <v>2170.872131622243</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.95903803985</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F34" t="n">
-        <v>1876.06909054194</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G34" t="n">
-        <v>1708.366253916659</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H34" t="n">
-        <v>1562.149067134517</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399798</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348674</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.49300379717</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396719</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102584</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022997</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456657</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R34" t="n">
-        <v>3235.775364366699</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S34" t="n">
-        <v>3044.089480193526</v>
+        <v>3120.355548834272</v>
       </c>
       <c r="T34" t="n">
-        <v>3044.089480193526</v>
+        <v>3120.355548834272</v>
       </c>
       <c r="U34" t="n">
-        <v>3044.089480193526</v>
+        <v>3120.355548834272</v>
       </c>
       <c r="V34" t="n">
-        <v>3044.089480193526</v>
+        <v>3120.355548834272</v>
       </c>
       <c r="W34" t="n">
-        <v>3044.089480193526</v>
+        <v>3120.355548834272</v>
       </c>
       <c r="X34" t="n">
-        <v>2892.365997936256</v>
+        <v>2892.365997936254</v>
       </c>
       <c r="Y34" t="n">
-        <v>2671.573418792726</v>
+        <v>2671.573418792724</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2345.167438673965</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C35" t="n">
-        <v>1976.204921733553</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D35" t="n">
-        <v>1617.939223126803</v>
+        <v>194.5422403324635</v>
       </c>
       <c r="E35" t="n">
-        <v>1232.150970528558</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
         <v>108.5090151927147</v>
@@ -6935,10 +6937,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6971,16 +6973,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>2731.767278738087</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W35" t="n">
-        <v>2731.767278738087</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X35" t="n">
-        <v>2731.767278738087</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y35" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
@@ -7047,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="C37" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="D37" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="E37" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L37" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N37" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O37" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P37" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S37" t="n">
-        <v>1645.778206672847</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T37" t="n">
-        <v>1424.011591242373</v>
+        <v>2822.322864763051</v>
       </c>
       <c r="U37" t="n">
-        <v>1134.908724368016</v>
+        <v>2533.219997888694</v>
       </c>
       <c r="V37" t="n">
-        <v>880.2242361621296</v>
+        <v>2278.535509682808</v>
       </c>
       <c r="W37" t="n">
-        <v>590.8070661251691</v>
+        <v>1989.118339645847</v>
       </c>
       <c r="X37" t="n">
-        <v>362.8175152271517</v>
+        <v>1761.12878874783</v>
       </c>
       <c r="Y37" t="n">
-        <v>142.0249360836216</v>
+        <v>1540.336209604299</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1617.939223126803</v>
+        <v>2251.634947019673</v>
       </c>
       <c r="C38" t="n">
-        <v>1617.939223126803</v>
+        <v>1882.672430079262</v>
       </c>
       <c r="D38" t="n">
-        <v>1617.939223126803</v>
+        <v>1524.406731472511</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528558</v>
+        <v>1138.618478874267</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>727.6325740846594</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>312.5601239296558</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V38" t="n">
-        <v>3120.91280869793</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W38" t="n">
-        <v>2768.144153427816</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X38" t="n">
-        <v>2394.678395166736</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="Y38" t="n">
-        <v>2004.539063190924</v>
+        <v>2251.634947019673</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7284,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1783.876212293105</v>
+        <v>1633.759572880768</v>
       </c>
       <c r="C40" t="n">
-        <v>1614.940029365198</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="D40" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="E40" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="F40" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="G40" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H40" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399798</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348674</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.49300379717</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396719</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102584</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022997</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456657</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.605821609171</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.605821609171</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T40" t="n">
-        <v>3247.511332282095</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="U40" t="n">
-        <v>2958.408465407739</v>
+        <v>2533.219997888694</v>
       </c>
       <c r="V40" t="n">
-        <v>2703.723977201852</v>
+        <v>2325.617786891498</v>
       </c>
       <c r="W40" t="n">
-        <v>2414.306807164891</v>
+        <v>2036.200616854537</v>
       </c>
       <c r="X40" t="n">
-        <v>2186.317256266874</v>
+        <v>2036.200616854537</v>
       </c>
       <c r="Y40" t="n">
-        <v>1965.524677123344</v>
+        <v>1815.408037711007</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1678.62132134232</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C41" t="n">
-        <v>1678.62132134232</v>
+        <v>758.7856865549909</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.35562273557</v>
+        <v>758.7856865549909</v>
       </c>
       <c r="E41" t="n">
-        <v>934.5673701373257</v>
+        <v>758.7856865549909</v>
       </c>
       <c r="F41" t="n">
-        <v>523.5814653477182</v>
+        <v>758.7856865549909</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3082.356728369497</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U41" t="n">
-        <v>2828.826251643334</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V41" t="n">
-        <v>2828.826251643334</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W41" t="n">
-        <v>2828.826251643334</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X41" t="n">
-        <v>2455.360493382254</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y41" t="n">
-        <v>2065.221161406442</v>
+        <v>1514.348043559524</v>
       </c>
     </row>
     <row r="42">
@@ -7485,16 +7487,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7503,10 +7505,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.613680441807</v>
+        <v>142.0249360836207</v>
       </c>
       <c r="C43" t="n">
-        <v>922.6774975139006</v>
+        <v>142.0249360836207</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>142.0249360836207</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>142.0249360836207</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>142.0249360836207</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>142.0249360836207</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>142.0249360836207</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P43" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S43" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T43" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U43" t="n">
-        <v>1837.464090846021</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V43" t="n">
-        <v>1837.464090846021</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="W43" t="n">
-        <v>1722.044275313594</v>
+        <v>590.8070661251681</v>
       </c>
       <c r="X43" t="n">
-        <v>1494.054724415577</v>
+        <v>362.8175152271508</v>
       </c>
       <c r="Y43" t="n">
-        <v>1273.262145272047</v>
+        <v>142.0249360836207</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1636.597933493125</v>
+        <v>1934.181533884357</v>
       </c>
       <c r="C44" t="n">
-        <v>1267.635416552713</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="D44" t="n">
-        <v>909.3697179459625</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E44" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389511</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389511</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H44" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U44" t="n">
-        <v>3072.075344883008</v>
+        <v>3072.075344883005</v>
       </c>
       <c r="V44" t="n">
-        <v>3072.075344883008</v>
+        <v>2741.012457539434</v>
       </c>
       <c r="W44" t="n">
-        <v>2719.306689612893</v>
+        <v>2388.24380226932</v>
       </c>
       <c r="X44" t="n">
-        <v>2345.840931351814</v>
+        <v>2014.77804400824</v>
       </c>
       <c r="Y44" t="n">
-        <v>1955.701599376002</v>
+        <v>2014.77804400824</v>
       </c>
     </row>
     <row r="45">
@@ -7719,19 +7721,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7740,7 +7742,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P45" t="n">
         <v>2407.411984886741</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.3234075408147</v>
+        <v>2195.12191288218</v>
       </c>
       <c r="C46" t="n">
-        <v>872.3234075408147</v>
+        <v>2026.185729954273</v>
       </c>
       <c r="D46" t="n">
-        <v>722.206768128479</v>
+        <v>1876.069090541938</v>
       </c>
       <c r="E46" t="n">
-        <v>574.2936745460859</v>
+        <v>1876.069090541938</v>
       </c>
       <c r="F46" t="n">
-        <v>427.4037270481755</v>
+        <v>1876.069090541938</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>1708.366253916657</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399795</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348672</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797168</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396716</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102581</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022994</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456654</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T46" t="n">
-        <v>1705.527932658019</v>
+        <v>3103.839206178695</v>
       </c>
       <c r="U46" t="n">
-        <v>1416.425065783662</v>
+        <v>2814.736339304338</v>
       </c>
       <c r="V46" t="n">
-        <v>1161.740577577775</v>
+        <v>2560.051851098452</v>
       </c>
       <c r="W46" t="n">
-        <v>872.3234075408147</v>
+        <v>2270.634681061491</v>
       </c>
       <c r="X46" t="n">
-        <v>872.3234075408147</v>
+        <v>2270.634681061491</v>
       </c>
       <c r="Y46" t="n">
-        <v>872.3234075408147</v>
+        <v>2270.634681061491</v>
       </c>
     </row>
   </sheetData>
@@ -8137,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>107.2331895657666</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>46.56605103777598</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8380,10 +8382,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>171.4142040457084</v>
+        <v>82.97369176944322</v>
       </c>
       <c r="N7" t="n">
-        <v>75.41988959484667</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8474,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
-        <v>56.27460493020698</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>42.56275186471075</v>
       </c>
       <c r="L10" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N10" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9000,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.13331566353736e-12</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9264,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1.359690138258429e-12</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -22547,7 +22549,7 @@
         <v>195.2082544971607</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>358.8761677849661</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22592,10 +22594,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -22607,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121492</v>
+        <v>182.2055135121491</v>
       </c>
       <c r="Y2" t="n">
-        <v>232.4307006236405</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="3">
@@ -22623,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22638,7 +22640,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
@@ -22671,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -22680,19 +22682,19 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>45.87414305599233</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831054</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459974</v>
+        <v>64.16939599459968</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>182.6830596938481</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098444</v>
       </c>
     </row>
     <row r="4">
@@ -22708,7 +22710,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22717,7 +22719,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>99.08473566304819</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -22750,22 +22752,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917631</v>
       </c>
       <c r="T4" t="n">
-        <v>61.89021848785134</v>
+        <v>36.19408632378017</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713042</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750814</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>98.99741117027114</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>195.2082544971607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22790,16 +22792,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H5" t="n">
-        <v>129.3682389399024</v>
+        <v>151.7212889301279</v>
       </c>
       <c r="I5" t="n">
         <v>125.4713171199747</v>
@@ -22829,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S5" t="n">
         <v>158.7758131900531</v>
@@ -22838,7 +22840,7 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>97.3620225326172</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22847,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>182.2055135121491</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22860,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.360646473772732</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22869,19 +22871,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,19 +22910,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>37.43082315384447</v>
       </c>
       <c r="T6" t="n">
-        <v>7.884010625681327</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U6" t="n">
-        <v>38.338181243771</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>45.27499998310535</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22990,16 +22992,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>177.7731704039379</v>
+        <v>19.25466862917636</v>
       </c>
       <c r="T7" t="n">
-        <v>36.19408632378017</v>
+        <v>36.19408632378023</v>
       </c>
       <c r="U7" t="n">
-        <v>98.73949432713036</v>
+        <v>98.73949432713042</v>
       </c>
       <c r="V7" t="n">
-        <v>64.61205615750808</v>
+        <v>223.1305579322697</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23021,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>177.7473046046876</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23033,13 +23035,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>129.3682389399024</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>48.27134388011225</v>
       </c>
       <c r="U8" t="n">
-        <v>218.9477975808688</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="9">
@@ -23097,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>31.28234809246041</v>
       </c>
       <c r="D9" t="n">
-        <v>91.13884914254055</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23182,10 +23184,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23194,13 +23196,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>88.52923883682158</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23224,16 +23226,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23245,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.723095905634864</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23258,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>362.4386851003786</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>167.8579417260441</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,13 +23317,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23476,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944209</v>
+        <v>172.2573809594894</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>168.0688818921509</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396202</v>
@@ -23555,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>181.1251564493167</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>42.0287287382541</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944209</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23738,16 +23740,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>257.3206869561668</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>181.1251564493168</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -23786,10 +23788,10 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23890,13 +23892,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>154.7287521795971</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>49.85054907335541</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23975,19 +23977,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>255.1805474109846</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>40.90051748247168</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24029,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>68.10750358912671</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24181,13 +24183,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>83.32522828944209</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24221,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>116.5954063245801</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>126.491952119225</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24367,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>82.55208449419968</v>
       </c>
       <c r="U25" t="n">
-        <v>69.12041821276446</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>167.8579417260441</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>97.0553756452102</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>98.80994969315879</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>47.47499069618004</v>
       </c>
     </row>
     <row r="29">
@@ -24677,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>348.0505476041121</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24695,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,10 +24733,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24743,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>139.1463142409833</v>
       </c>
     </row>
     <row r="30">
@@ -24838,25 +24840,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>52.11982129457479</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>79.09653893143596</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24914,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>235.2778014719923</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24965,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>6.745935206069419</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>75.50340795434003</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>75.50340795433985</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25160,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>296.7574771839105</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25211,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>303.9530049144603</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>105.0742887270135</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25406,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>51.02023696482277</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25448,13 +25450,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>125.1061756880062</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>142.2354048423638</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>46.61145443660405</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25628,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>20.17865561919456</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,16 +25681,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>72.28912962051885</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>21.59472895491518</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,19 +25836,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>172.2573809594889</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>66.82121243943209</v>
+        <v>302.9432966408366</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25880,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0743396844198</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>49.850549073355</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>471997.7018764836</v>
+        <v>471997.7018764837</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>471997.7018764837</v>
+        <v>471997.7018764835</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>731289.1033889869</v>
+        <v>471997.7018764837</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>879911.6497810576</v>
+        <v>879911.6497810574</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>879911.6497810576</v>
+        <v>879911.6497810575</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>879911.6497810574</v>
+        <v>879911.6497810575</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>879911.6497810574</v>
+        <v>879911.6497810575</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>879911.6497810575</v>
+        <v>879911.6497810573</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>879911.6497810576</v>
+        <v>879911.6497810575</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>879911.6497810575</v>
+        <v>879911.6497810574</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>879911.6497810576</v>
+        <v>879911.6497810573</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>879911.6497810576</v>
+        <v>879911.6497810573</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>879911.6497810576</v>
+        <v>879911.6497810573</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>171419.5356187815</v>
       </c>
       <c r="C2" t="n">
+        <v>171419.5356187816</v>
+      </c>
+      <c r="D2" t="n">
         <v>171419.5356187815</v>
-      </c>
-      <c r="D2" t="n">
-        <v>265569.88022318</v>
       </c>
       <c r="E2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="F2" t="n">
-        <v>323947.2440223745</v>
+        <v>323947.2440223743</v>
       </c>
       <c r="G2" t="n">
+        <v>323947.2440223743</v>
+      </c>
+      <c r="H2" t="n">
         <v>323947.2440223744</v>
       </c>
-      <c r="H2" t="n">
-        <v>323947.2440223742</v>
-      </c>
       <c r="I2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223743</v>
       </c>
       <c r="J2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="K2" t="n">
-        <v>323947.2440223745</v>
+        <v>323947.2440223743</v>
       </c>
       <c r="L2" t="n">
+        <v>323947.2440223746</v>
+      </c>
+      <c r="M2" t="n">
+        <v>323947.2440223747</v>
+      </c>
+      <c r="N2" t="n">
         <v>323947.2440223744</v>
       </c>
-      <c r="M2" t="n">
-        <v>323947.2440223745</v>
-      </c>
-      <c r="N2" t="n">
-        <v>323947.2440223743</v>
-      </c>
       <c r="O2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="P2" t="n">
-        <v>323947.2440223745</v>
+        <v>323947.2440223744</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26371,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>371558.524948766</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.7457669098</v>
+        <v>627134.6436336674</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854461</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>89743.37813127035</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608614</v>
+        <v>160456.4418678773</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>12034.19304942663</v>
+      </c>
+      <c r="C4" t="n">
         <v>12034.19304942662</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>12034.19304942663</v>
       </c>
-      <c r="D4" t="n">
-        <v>18888.92742949786</v>
-      </c>
       <c r="E4" t="n">
+        <v>10990.29103211609</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10990.29103211612</v>
+      </c>
+      <c r="G4" t="n">
         <v>10990.29103211611</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10990.29103211611</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10990.29103211612</v>
       </c>
       <c r="H4" t="n">
         <v>10990.29103211609</v>
@@ -26473,43 +26475,43 @@
         <v>56985.80041161357</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="F5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="G5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="I5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="J5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="K5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="L5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="G5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="H5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="I5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="J5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="K5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="L5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139326</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-488957.3603631041</v>
+        <v>-488957.360363104</v>
       </c>
       <c r="C6" t="n">
+        <v>102399.5421577414</v>
+      </c>
+      <c r="D6" t="n">
         <v>102399.5421577413</v>
       </c>
-      <c r="D6" t="n">
-        <v>-210076.6540109561</v>
-      </c>
       <c r="E6" t="n">
-        <v>-37380.13333804475</v>
+        <v>-388484.0312048023</v>
       </c>
       <c r="F6" t="n">
         <v>238650.6124288651</v>
       </c>
       <c r="G6" t="n">
-        <v>238650.612428865</v>
+        <v>238650.6124288648</v>
       </c>
       <c r="H6" t="n">
         <v>238650.612428865</v>
       </c>
       <c r="I6" t="n">
-        <v>238650.6124288648</v>
+        <v>238650.6124288649</v>
       </c>
       <c r="J6" t="n">
-        <v>189585.6677003205</v>
+        <v>189585.6677003204</v>
       </c>
       <c r="K6" t="n">
-        <v>238650.6124288651</v>
+        <v>238650.6124288649</v>
       </c>
       <c r="L6" t="n">
-        <v>148907.2342975947</v>
+        <v>238650.612428865</v>
       </c>
       <c r="M6" t="n">
-        <v>166559.259812779</v>
+        <v>78194.17056098796</v>
       </c>
       <c r="N6" t="n">
-        <v>238650.6124288649</v>
+        <v>238650.612428865</v>
       </c>
       <c r="O6" t="n">
-        <v>238650.6124288652</v>
+        <v>238650.6124288653</v>
       </c>
       <c r="P6" t="n">
-        <v>238650.6124288651</v>
+        <v>238650.612428865</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26743,7 @@
         <v>548.4699409129046</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26793,43 +26795,43 @@
         <v>187.5255871663199</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261631</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="G4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="K4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="L4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
     </row>
   </sheetData>
@@ -26963,22 +26965,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>305.2407236247795</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556139</v>
+        <v>541.3067596803935</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26987,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>354.5893695598431</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761296</v>
+        <v>643.8758682359725</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598435</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761293</v>
+        <v>643.8758682359726</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598431</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761296</v>
+        <v>643.8758682359725</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I14" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R14" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,37 +32068,37 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J15" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32105,7 +32107,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32154,16 +32156,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L16" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N16" t="n">
         <v>300.7247737883114</v>
@@ -32172,19 +32174,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S16" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780294</v>
@@ -32254,7 +32256,7 @@
         <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781699</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
         <v>275.1987363563568</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,37 +32542,37 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026452</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32579,7 +32581,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32628,16 +32630,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
         <v>300.7247737883114</v>
@@ -32646,19 +32648,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780294</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953992</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H42" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q43" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953992</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002938</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781471</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
@@ -34857,13 +34859,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>123.3445726863781</v>
       </c>
       <c r="N4" t="n">
         <v>187.5255871663199</v>
@@ -34872,7 +34874,7 @@
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068212</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35100,10 +35102,10 @@
         <v>174.6339172880152</v>
       </c>
       <c r="M7" t="n">
+        <v>99.08507489005474</v>
+      </c>
+      <c r="N7" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="N7" t="n">
-        <v>99.08507489005493</v>
       </c>
       <c r="O7" t="n">
         <v>164.382023673283</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>172.7419126813483</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.9526521472057</v>
+        <v>52.65872908781471</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>304.4954681847781</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
-        <v>13.85280893410651</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.48193198348409</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>156.5898900231598</v>
+        <v>28.45844197068223</v>
       </c>
       <c r="L10" t="n">
-        <v>256.4684548971897</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M10" t="n">
-        <v>280.9040898900911</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N10" t="n">
-        <v>279.7143300212425</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O10" t="n">
-        <v>242.1833805735793</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P10" t="n">
-        <v>183.4714556748827</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.74826709349593</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35904,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037204</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222472</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597848</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687129</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687129</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859635</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
